--- a/수행결과/team_3최종/문서/3조 WBS.xlsx
+++ b/수행결과/team_3최종/문서/3조 WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\kdt\1차 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimz1\vscode_kdt_wd\_kdt_1st_project\KDT_PROJECT\수행결과\team_3최종\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22072EDE-14A6-49D5-B657-01A067219693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4F13C8-174F-4EF6-B3D6-37ADE7CF3C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구축WBS" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,21 +198,6 @@
     <t xml:space="preserve">3. </t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1. </t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,9 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2. </t>
-  </si>
-  <si>
     <t>설정 파일 및 화면 캡쳐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박○○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +372,82 @@
   </si>
   <si>
     <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정한솔, 김지학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 랭킹 UI 화면 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,9 +1024,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,47 +1126,6 @@
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="-0.499984740745262"/>
@@ -1166,7 +1176,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1352,9 +1403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1392,7 +1443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1498,7 +1549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1640,7 +1691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1653,11 +1704,11 @@
   </sheetPr>
   <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1677,131 +1728,131 @@
   <sheetData>
     <row r="1" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="77" t="s">
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="77" t="s">
+      <c r="P4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="R4" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="7">
         <v>45485</v>
       </c>
@@ -1860,23 +1911,23 @@
         <v>45488</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
+        <v>64</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
     </row>
     <row r="7" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
@@ -1898,23 +1949,23 @@
         <v>45488</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
+        <v>64</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
     </row>
     <row r="8" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B8" s="22">
@@ -1938,21 +1989,21 @@
       <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
+      <c r="K8" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
@@ -1980,21 +2031,21 @@
       <c r="J9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="K9" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35">
@@ -2018,21 +2069,21 @@
       <c r="J10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
+      <c r="K10" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B11" s="40">
@@ -2060,21 +2111,21 @@
       <c r="J11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
+      <c r="K11" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B12" s="40">
@@ -2102,21 +2153,21 @@
       <c r="J12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
+      <c r="K12" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
     </row>
     <row r="13" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B13" s="28">
@@ -2126,7 +2177,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
@@ -2137,592 +2188,630 @@
       <c r="I13" s="33">
         <v>45492</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+    </row>
+    <row r="14" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40">
+        <v>2</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="15">
+        <v>45485</v>
+      </c>
+      <c r="I14" s="33">
+        <v>45492</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+    </row>
+    <row r="15" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="47">
+        <v>3</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-    </row>
-    <row r="14" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-    </row>
-    <row r="15" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
-        <v>3</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="15">
         <v>45485</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="15">
+        <v>45488</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+    </row>
+    <row r="16" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="53">
+        <v>3</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="15">
+        <v>45489</v>
+      </c>
+      <c r="I16" s="33">
         <v>45492</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-    </row>
-    <row r="16" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="47">
-        <v>4</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="15">
-        <v>45485</v>
-      </c>
-      <c r="I16" s="15">
-        <v>45488</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
+      <c r="J16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="54">
-        <v>4</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56" t="s">
+      <c r="B17" s="47">
+        <v>3</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="15">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="I17" s="33">
         <v>45492</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
+      <c r="J17" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="47">
-        <v>4</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="B18" s="40">
+        <v>2</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="15">
-        <v>45491</v>
+        <v>45485</v>
       </c>
       <c r="I18" s="33">
         <v>45492</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
+      <c r="J18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
     </row>
     <row r="19" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="40">
+      <c r="B19" s="58">
         <v>3</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="C19" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="15">
         <v>45485</v>
       </c>
-      <c r="I19" s="33">
-        <v>45492</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
+      <c r="I19" s="15">
+        <v>45489</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
     </row>
     <row r="20" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="59">
-        <v>4</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="58">
+        <v>3</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="15">
-        <v>45485</v>
+        <v>45489</v>
       </c>
       <c r="I20" s="15">
-        <v>45489</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
+        <v>45490</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
     </row>
     <row r="21" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="59">
-        <v>4</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="56" t="s">
+      <c r="B21" s="58">
+        <v>3</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="15">
-        <v>45489</v>
-      </c>
-      <c r="I21" s="15">
-        <v>45490</v>
-      </c>
-      <c r="J21" s="53" t="s">
+        <v>45491</v>
+      </c>
+      <c r="I21" s="33">
+        <v>45126</v>
+      </c>
+      <c r="J21" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
     </row>
     <row r="22" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="59">
-        <v>4</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>84</v>
-      </c>
+      <c r="B22" s="40">
+        <v>2</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="61"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
       <c r="H22" s="15">
-        <v>45491</v>
+        <v>45485</v>
       </c>
       <c r="I22" s="33">
-        <v>45126</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
+        <v>45492</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="69" t="s">
+        <v>63</v>
+      </c>
       <c r="Q22" s="70" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="R22" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
+        <v>49</v>
+      </c>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
     </row>
     <row r="23" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="40">
+      <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="C23" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="15">
         <v>45485</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="15">
+        <v>45488</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+    </row>
+    <row r="24" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="58">
+        <v>3</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="15">
+        <v>45489</v>
+      </c>
+      <c r="I24" s="15">
         <v>45492</v>
       </c>
-      <c r="J23" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="R23" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-    </row>
-    <row r="24" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="59">
-        <v>4</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60" t="s">
+      <c r="J24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+    </row>
+    <row r="25" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="58">
+        <v>3</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="15">
-        <v>45485</v>
-      </c>
-      <c r="I24" s="15">
-        <v>45488</v>
-      </c>
-      <c r="J24" s="53" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="15">
+        <v>45490</v>
+      </c>
+      <c r="I25" s="15">
+        <v>45491</v>
+      </c>
+      <c r="J25" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-    </row>
-    <row r="25" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="59">
-        <v>4</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="15">
-        <v>45489</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+    </row>
+    <row r="26" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="58">
+        <v>3</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="15">
+        <v>45491</v>
+      </c>
+      <c r="I26" s="15">
         <v>45492</v>
       </c>
-      <c r="J25" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-    </row>
-    <row r="26" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="59">
-        <v>4</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="15">
-        <v>45490</v>
-      </c>
-      <c r="I26" s="15">
-        <v>45491</v>
-      </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q26" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
     </row>
     <row r="27" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="59">
-        <v>4</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="58">
+        <v>3</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="15">
         <v>45491</v>
       </c>
       <c r="I27" s="15">
         <v>45492</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R27" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
     </row>
     <row r="28" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B28" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44"/>
@@ -2736,32 +2825,34 @@
       <c r="J28" s="46">
         <v>2</v>
       </c>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="70" t="s">
-        <v>69</v>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B29" s="47">
-        <v>4</v>
-      </c>
-      <c r="C29" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>103</v>
+      </c>
       <c r="D29" s="49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -2771,23 +2862,23 @@
       <c r="I29" s="15">
         <v>45495</v>
       </c>
-      <c r="J29" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="70" t="s">
-        <v>69</v>
+      <c r="J29" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -2795,12 +2886,14 @@
         <v>1</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="15">
@@ -2810,20 +2903,20 @@
         <v>45495</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="70" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -2831,12 +2924,14 @@
         <v>2</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="15">
@@ -2848,18 +2943,18 @@
       <c r="J31" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="70" t="s">
-        <v>69</v>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:21" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -2867,13 +2962,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -2886,33 +2981,35 @@
       <c r="J32" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="70" t="s">
-        <v>69</v>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B33" s="63">
+      <c r="B33" s="62">
         <v>2</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="C33" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="15">
         <v>45495</v>
       </c>
@@ -2922,18 +3019,18 @@
       <c r="J33" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="70" t="s">
-        <v>69</v>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2953,47 +3050,47 @@
     <mergeCell ref="J2:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B6:J33">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>AND($B6=4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND($B6=3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>AND($B6=2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND($B6=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K4:U33">
-    <cfRule type="expression" dxfId="10" priority="225">
+    <cfRule type="expression" dxfId="6" priority="225">
       <formula>K$4="토"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="227">
+    <cfRule type="expression" dxfId="4" priority="227">
       <formula>K$4="일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:U33">
-    <cfRule type="expression" dxfId="8" priority="221">
+    <cfRule type="expression" dxfId="3" priority="221">
       <formula>AND($B6=4,K6="ㅇ")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="222">
+    <cfRule type="expression" dxfId="2" priority="222">
       <formula>AND($B6=3,K6="ㅇ")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="223">
+    <cfRule type="expression" dxfId="1" priority="223">
       <formula>AND($B6=2,K6="ㅇ")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="224">
+    <cfRule type="expression" dxfId="0" priority="224">
       <formula>AND($B6=1,K6="ㅇ")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:J33">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND($B6=4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND($B6=3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($B6=2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <extLst>
